--- a/pred_ohlcv/54_21/2019-10-15 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-15 XLM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>429797.2190739902</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>429797.2190739902</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>442968.6568739902</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>442968.6568739902</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>442968.6568739902</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>437801.8269739902</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>437263.8707739902</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>398663.7407739902</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>398663.7407739902</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>309138.5751739903</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>363954.9473739903</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>469679.4185739902</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>469679.4185739902</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>469679.4185739902</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>469679.4185739902</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>469679.4185739902</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>469401.3675739903</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>470695.3675739903</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>470695.3675739903</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>470695.3675739903</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>470695.3675739903</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>500788.9466739902</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>500788.9466739902</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>243308.1180739903</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>243308.1180739903</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>214519.2598739903</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>256433.1681739904</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>256433.1681739904</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>256433.1681739904</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>233935.1929739903</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>234380.1929739903</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>229209.2163739903</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>234451.6414739903</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>234451.6414739903</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>254280.0374739903</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>254280.0374739903</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>256965.4147739903</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>255272.1480739903</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>313499.8755739904</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>313499.8755739904</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>313499.8755739904</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>310949.8756739904</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>313808.0538739904</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>323678.5842739904</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>330084.0024739904</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>330084.0024739904</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>338304.2839739904</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>338304.2839739904</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>338304.2839739904</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>338304.2839739904</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>343299.4713739904</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>343299.4713739904</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>344999.4713739904</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>409394.4684739904</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>491201.6737739904</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>491201.6737739904</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>491201.6737739904</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>506830.8442739904</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>553528.4942739904</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>553528.4942739904</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>538092.4942739904</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>536785.5512739904</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>537932.5122739904</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>537932.5122739904</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>512934.8846739904</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>489038.9589739904</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>468379.8616739904</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>475537.8258739904</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>475537.8258739904</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>475537.8258739904</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>475537.8258739904</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>526302.8982739904</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>526302.8982739904</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>464968.8982739904</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>464968.8982739904</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>559973.4234739904</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>730019.3529739904</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>730019.3529739904</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>694340.9540739903</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>694340.9540739903</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>687880.0624739904</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>677224.8752739903</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>677224.8752739903</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>686885.3546739903</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>686885.3546739903</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>691645.8826739903</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>691645.8826739903</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>692145.8826739903</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>766396.0512739903</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>805167.2705739903</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>854316.8896739903</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>842568.8671739904</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>858915.5458739904</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>853584.8621739903</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>855698.8621739903</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>854698.8621739903</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>823871.3015739904</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>823871.3015739904</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>813967.3015739904</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>813967.3015739904</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>847953.1755739904</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>867305.8698739904</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>865305.8699739904</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>865305.8699739904</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>865305.8699739904</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>959831.0567739904</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>959831.0567739904</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>959831.0567739904</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>959831.0567739904</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>969341.7702739903</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>971987.0409739903</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>966125.0409739903</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>966125.0409739903</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>966125.0409739903</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>967583.0409739903</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>859735.8427739904</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>913627.1188739904</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>715151.9124739903</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>715151.9124739903</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>712271.9124739903</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>711628.3124739904</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>717332.7503739904</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>743139.6701739904</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>743139.6701739904</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>743126.4775739905</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>747883.1874739905</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>747667.0902739905</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>820693.9650739905</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>820693.9650739905</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>820693.9650739905</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>820693.9650739905</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>820693.9650739905</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>820693.9650739905</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>818693.9650739905</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>818693.9650739905</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>774661.4969739905</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>775182.9620739905</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>775182.9620739905</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>762698.9620739905</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>747706.9628739905</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>763640.2005739906</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>762418.2005739906</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>762418.2005739906</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>762418.2005739906</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>762418.2005739906</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>762418.2005739906</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>755655.1721739906</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>760589.7880344907</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>760535.8985344906</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>883156.7957344906</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>906583.3459344907</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>993375.4988344907</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>1107911.810834491</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>1151258.724334491</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>1225189.828934491</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>1225189.828934491</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>1225189.828934491</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>1336033.238738111</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>1336033.238738111</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>1336033.238738111</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>1592246.073372631</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>1533554.502907151</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>1533554.502907151</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>1533554.502907151</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>1533554.502907151</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>1580048.001907151</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>1580048.001907151</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>1580048.001907151</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>1576427.204507151</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>1576427.204507151</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>1661697.123907151</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>1661697.123907151</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>1659051.332407151</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>1659051.332407151</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>2079483.808547541</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>2166092.770747541</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>2166092.770747541</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>2154848.743747542</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>2397592.756447542</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>2243073.386647542</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>2232579.777547542</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>2089927.391247542</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>2090027.391247542</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>2090027.391247542</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>2090138.391247542</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>2090138.391247542</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>2091891.508447542</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>2140804.071447541</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>2140804.071447541</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>2137395.097147542</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>2125566.845747542</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>2125566.845747542</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>2146570.559447541</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>2088446.368530791</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>2077376.126330791</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>2106322.012530791</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>2131319.15903079</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>2212076.36353079</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>2137174.41503079</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>2153942.298730791</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>2181940.080214771</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>2181940.080214771</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>2181940.080214771</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>2181940.080214771</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>2224532.174414771</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>2243703.792854011</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>2242403.792854011</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>2242403.792854011</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>2242403.792854011</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>2243749.027254011</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>2243599.027254011</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>2243499.027254011</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>2231961.783454011</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>2226473.653354011</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>2213741.865754011</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>2212137.605754011</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>2287800.116554011</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>2268374.339554011</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>2289167.696554011</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>2289167.696554011</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>2293914.078854011</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>2239368.870954011</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>2239368.870954011</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>2308946.392454011</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>2306203.392454011</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>2293545.634654011</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>2309862.724654011</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>2309862.724654011</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>2309862.724654011</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>2304679.008954011</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>2407659.251154011</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>2407659.251154011</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>2407659.251154011</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>2407659.251154011</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>2413947.191154011</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>2413947.191154011</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>2413947.191154011</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>2413947.191154011</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>2410983.672654011</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>2404458.795054012</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>2479551.766954011</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>2477878.729254011</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>2360334.973454011</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>2374014.364154011</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>2374014.364154011</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>2374014.364154011</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>2365814.384154011</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-15 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-15 XLM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>429797.2190739902</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>429797.2190739902</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>442968.6568739902</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>442968.6568739902</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>442968.6568739902</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>437801.8269739902</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>437263.8707739902</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>398663.7407739902</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>398663.7407739902</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>304538.8396739903</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>304538.8396739903</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>304538.8396739903</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>309879.3206739903</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>309879.3206739903</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>282371.9696739903</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>273870.3464739903</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>348720.1793739903</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>363954.9473739903</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>469679.4185739902</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>469679.4185739902</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>469679.4185739902</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>469679.4185739902</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>469679.4185739902</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>469679.4185739902</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>469401.3675739903</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>470695.3675739903</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>470695.3675739903</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>470695.3675739903</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>470695.3675739903</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>500788.9466739902</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>500788.9466739902</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>234451.6414739903</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>234451.6414739903</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>254280.0374739903</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>254280.0374739903</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>255280.0374739903</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>256965.4147739903</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>255272.1480739903</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>255372.1480739903</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>313499.8755739904</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>313499.8755739904</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>313499.8755739904</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>310949.8756739904</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>313808.0538739904</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>323678.5842739904</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>330084.0024739904</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>330084.0024739904</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>338304.2839739904</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>338304.2839739904</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>338304.2839739904</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>338304.2839739904</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>343299.4713739904</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>343299.4713739904</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>344999.4713739904</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>409394.4684739904</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>491201.6737739904</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>491201.6737739904</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>491201.6737739904</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>506830.8442739904</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>553528.4942739904</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>553528.4942739904</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>538092.4942739904</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>536785.5512739904</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>537932.5122739904</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>537932.5122739904</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>512934.8846739904</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>489038.9589739904</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>468379.8616739904</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>475537.8258739904</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>475537.8258739904</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>475537.8258739904</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>475537.8258739904</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>526302.8982739904</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>526302.8982739904</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>464968.8982739904</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>464968.8982739904</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>559973.4234739904</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>730019.3529739904</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>730019.3529739904</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>694340.9540739903</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>694340.9540739903</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>687880.0624739904</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>677224.8752739903</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>677224.8752739903</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>686885.3546739903</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>686885.3546739903</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>691645.8826739903</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>691645.8826739903</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>692145.8826739903</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>766396.0512739903</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>805167.2705739903</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>854316.8896739903</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>842568.8671739904</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>858915.5458739904</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>853584.8621739903</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>855698.8621739903</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>854698.8621739903</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>823871.3015739904</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>823871.3015739904</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>813967.3015739904</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>813967.3015739904</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>847953.1755739904</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>867305.8698739904</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>865305.8699739904</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>865305.8699739904</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>865305.8699739904</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>959831.0567739904</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>959831.0567739904</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>959831.0567739904</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>959831.0567739904</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>969341.7702739903</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>971987.0409739903</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>966125.0409739903</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>966125.0409739903</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>966125.0409739903</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>967583.0409739903</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>859735.8427739904</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>913627.1188739904</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>715151.9124739903</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>715151.9124739903</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>712271.9124739903</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>711628.3124739904</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>717332.7503739904</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>743139.6701739904</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>743139.6701739904</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>743126.4775739905</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>747883.1874739905</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>747667.0902739905</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>820693.9650739905</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>820693.9650739905</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>820693.9650739905</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>820693.9650739905</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>820693.9650739905</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>820693.9650739905</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>818693.9650739905</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>818693.9650739905</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>774661.4969739905</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>775182.9620739905</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>775182.9620739905</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>762698.9620739905</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>747706.9628739905</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>763640.2005739906</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>762418.2005739906</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>762418.2005739906</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>762418.2005739906</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>762418.2005739906</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>762418.2005739906</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>755655.1721739906</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>760589.7880344907</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>760535.8985344906</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>883156.7957344906</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>906583.3459344907</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>993375.4988344907</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>1107911.810834491</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>1151258.724334491</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>1225189.828934491</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>1225189.828934491</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>1225189.828934491</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>1336033.238738111</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>1336033.238738111</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>1336033.238738111</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>1592246.073372631</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>1533554.502907151</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>1533554.502907151</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>1533554.502907151</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>1533554.502907151</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>1580048.001907151</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>1580048.001907151</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>1580048.001907151</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>1576427.204507151</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>1576427.204507151</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>1661697.123907151</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>1661697.123907151</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>1659051.332407151</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>1659051.332407151</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>2037105.682043721</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>2065650.946443721</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>2079483.808547541</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>2079483.808547541</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>2089872.370747542</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>2166092.770747541</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>2166092.770747541</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>2154848.743747542</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>2397592.756447542</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>2243073.386647542</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>2232579.777547542</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>2090027.391247542</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>2090027.391247542</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>2077376.126330791</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>2106322.012530791</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>2131319.15903079</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>2212076.36353079</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>2137174.41503079</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>2153942.298730791</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>2181940.080214771</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>2181940.080214771</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>2181940.080214771</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>2181940.080214771</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>2224532.174414771</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>2243703.792854011</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>2242403.792854011</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>2242403.792854011</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>2242403.792854011</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>2243749.027254011</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>2243599.027254011</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>2243499.027254011</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>2231961.783454011</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>2226473.653354011</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>2213741.865754011</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>2212137.605754011</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>2287800.116554011</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>2268374.339554011</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>2289167.696554011</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>2289167.696554011</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>2293914.078854011</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>2239368.870954011</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>2239368.870954011</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>2308946.392454011</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>2306203.392454011</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>2293545.634654011</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>2309862.724654011</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>2309862.724654011</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>2309862.724654011</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>2304679.008954011</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>2407659.251154011</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>2407659.251154011</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>2407659.251154011</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>2407659.251154011</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>2413947.191154011</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>2413947.191154011</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>2413947.191154011</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>2413947.191154011</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>2410983.672654011</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>2404458.795054012</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>2479551.766954011</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>2477878.729254011</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>2360334.973454011</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>2374014.364154011</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>2374014.364154011</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>2374014.364154011</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
